--- a/data/pca/factorExposure/factorExposure_2017-08-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0236976225786772</v>
+        <v>-0.009439810757439831</v>
       </c>
       <c r="C2">
-        <v>0.000194296458607866</v>
+        <v>-0.04325308323192469</v>
       </c>
       <c r="D2">
-        <v>-0.01679220218429327</v>
+        <v>0.02994318578324701</v>
       </c>
       <c r="E2">
-        <v>-0.01226030692935721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03419255359064186</v>
+      </c>
+      <c r="F2">
+        <v>-0.01198040624668877</v>
+      </c>
+      <c r="G2">
+        <v>-0.07319066828632208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01652476272553645</v>
+        <v>-0.05791818979639489</v>
       </c>
       <c r="C3">
-        <v>0.05297018667304187</v>
+        <v>-0.07152382270602146</v>
       </c>
       <c r="D3">
-        <v>-0.001957738046328216</v>
+        <v>0.01564940094289193</v>
       </c>
       <c r="E3">
-        <v>0.002429993694043234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1028340353033205</v>
+      </c>
+      <c r="F3">
+        <v>-0.03600060191996247</v>
+      </c>
+      <c r="G3">
+        <v>-0.1600973268126413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02359504587966368</v>
+        <v>-0.06008895097716312</v>
       </c>
       <c r="C4">
-        <v>0.01957404488595637</v>
+        <v>-0.06371983861189359</v>
       </c>
       <c r="D4">
-        <v>-0.06357809130855455</v>
+        <v>0.0236890310596654</v>
       </c>
       <c r="E4">
-        <v>0.01088848140717116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02297519917386492</v>
+      </c>
+      <c r="F4">
+        <v>-0.007883408002651084</v>
+      </c>
+      <c r="G4">
+        <v>-0.07329913993111739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01532561916076962</v>
+        <v>-0.04025921915551828</v>
       </c>
       <c r="C6">
-        <v>0.01122939134768774</v>
+        <v>-0.05208378073447385</v>
       </c>
       <c r="D6">
-        <v>-0.09062531208082128</v>
+        <v>0.01622945550757928</v>
       </c>
       <c r="E6">
-        <v>0.002812340971846962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02312023562313602</v>
+      </c>
+      <c r="F6">
+        <v>-0.01220349084634216</v>
+      </c>
+      <c r="G6">
+        <v>-0.05011804479551199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01058975144446376</v>
+        <v>-0.0207599494741814</v>
       </c>
       <c r="C7">
-        <v>0.006664867801955496</v>
+        <v>-0.03997348610641811</v>
       </c>
       <c r="D7">
-        <v>-0.03794676752989397</v>
+        <v>0.01303871164349579</v>
       </c>
       <c r="E7">
-        <v>0.0594757764652728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.006508776336988228</v>
+      </c>
+      <c r="F7">
+        <v>0.00413068373554318</v>
+      </c>
+      <c r="G7">
+        <v>-0.1127082174594287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1.831674880020405e-05</v>
+        <v>-0.001846151443680007</v>
       </c>
       <c r="C8">
-        <v>0.0005297037236048331</v>
+        <v>-0.02093751713529689</v>
       </c>
       <c r="D8">
-        <v>-0.001150345614068464</v>
+        <v>0.003743824361800624</v>
       </c>
       <c r="E8">
-        <v>0.008992097165029333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02320540452345126</v>
+      </c>
+      <c r="F8">
+        <v>-0.01657613337684144</v>
+      </c>
+      <c r="G8">
+        <v>-0.04609101401884916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01635948562697798</v>
+        <v>-0.03541769164003434</v>
       </c>
       <c r="C9">
-        <v>0.02046014837861229</v>
+        <v>-0.04428538543611892</v>
       </c>
       <c r="D9">
-        <v>-0.04711342112813973</v>
+        <v>0.01615848894747269</v>
       </c>
       <c r="E9">
-        <v>0.002263151411418745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01591783431643277</v>
+      </c>
+      <c r="F9">
+        <v>-0.01262421492224848</v>
+      </c>
+      <c r="G9">
+        <v>-0.07803294507983695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02052266836123846</v>
+        <v>-0.091595807054926</v>
       </c>
       <c r="C10">
-        <v>0.1641700065047828</v>
+        <v>0.1863139145788059</v>
       </c>
       <c r="D10">
-        <v>0.1105043322694141</v>
+        <v>-0.01705854155122939</v>
       </c>
       <c r="E10">
-        <v>-0.002705973257766022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0120927195680771</v>
+      </c>
+      <c r="F10">
+        <v>0.02017202344530186</v>
+      </c>
+      <c r="G10">
+        <v>-0.05116225026224887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007617251130166608</v>
+        <v>-0.03527099760727634</v>
       </c>
       <c r="C11">
-        <v>0.007080653110152867</v>
+        <v>-0.05286333436778438</v>
       </c>
       <c r="D11">
-        <v>-0.03957219102190841</v>
+        <v>0.002482341398638064</v>
       </c>
       <c r="E11">
-        <v>-0.006945464098017902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009219690001857555</v>
+      </c>
+      <c r="F11">
+        <v>-0.02160226176675984</v>
+      </c>
+      <c r="G11">
+        <v>-0.05964576341412825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006367079470129493</v>
+        <v>-0.03706835879192021</v>
       </c>
       <c r="C12">
-        <v>0.01315551499404834</v>
+        <v>-0.04819331145627707</v>
       </c>
       <c r="D12">
-        <v>-0.04431130628583676</v>
+        <v>0.006242872582070513</v>
       </c>
       <c r="E12">
-        <v>0.003601060311593271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0006068419475217074</v>
+      </c>
+      <c r="F12">
+        <v>-0.002160118434941922</v>
+      </c>
+      <c r="G12">
+        <v>-0.0548804785721286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02279576455034581</v>
+        <v>-0.01797085271290887</v>
       </c>
       <c r="C13">
-        <v>0.01552477857051009</v>
+        <v>-0.03567078376315754</v>
       </c>
       <c r="D13">
-        <v>-0.007773810901780115</v>
+        <v>0.0257862927703571</v>
       </c>
       <c r="E13">
-        <v>-0.01054054882983516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0279541402384999</v>
+      </c>
+      <c r="F13">
+        <v>-0.007187165422801786</v>
+      </c>
+      <c r="G13">
+        <v>-0.09001906908670912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007948369418534038</v>
+        <v>-0.009418970585132053</v>
       </c>
       <c r="C14">
-        <v>0.01456542312252514</v>
+        <v>-0.02604219392593165</v>
       </c>
       <c r="D14">
-        <v>-0.01192901085948012</v>
+        <v>0.00892005479114571</v>
       </c>
       <c r="E14">
-        <v>0.00976985805045558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002079793713886615</v>
+      </c>
+      <c r="F14">
+        <v>0.005591881900072732</v>
+      </c>
+      <c r="G14">
+        <v>-0.07877010166263963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001670250667073573</v>
+        <v>-0.03452363529822956</v>
       </c>
       <c r="C16">
-        <v>0.01318658760189561</v>
+        <v>-0.04752772910550238</v>
       </c>
       <c r="D16">
-        <v>-0.04747671948355387</v>
+        <v>0.001979479220279473</v>
       </c>
       <c r="E16">
-        <v>0.002537524205010613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007386193115805413</v>
+      </c>
+      <c r="F16">
+        <v>-0.002969532113220817</v>
+      </c>
+      <c r="G16">
+        <v>-0.06315811636935102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01426027220025046</v>
+        <v>-0.026289672650588</v>
       </c>
       <c r="C19">
-        <v>0.02432902364606546</v>
+        <v>-0.04803568821822859</v>
       </c>
       <c r="D19">
-        <v>-0.01603562762286577</v>
+        <v>0.01724872906223592</v>
       </c>
       <c r="E19">
-        <v>0.006098395778871675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06167440471356014</v>
+      </c>
+      <c r="F19">
+        <v>-0.01932985224605841</v>
+      </c>
+      <c r="G19">
+        <v>-0.1029508874003405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01121639619907815</v>
+        <v>-0.01618789015602109</v>
       </c>
       <c r="C20">
-        <v>0.009211430765493297</v>
+        <v>-0.0344905764827779</v>
       </c>
       <c r="D20">
-        <v>-0.008902485501366056</v>
+        <v>0.01359477284894804</v>
       </c>
       <c r="E20">
-        <v>-0.006830079593633095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02777889041765058</v>
+      </c>
+      <c r="F20">
+        <v>0.004687685379019477</v>
+      </c>
+      <c r="G20">
+        <v>-0.08002105457026087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01502173301425093</v>
+        <v>-0.0160331925580029</v>
       </c>
       <c r="C21">
-        <v>0.02257806322958794</v>
+        <v>-0.0368005948575057</v>
       </c>
       <c r="D21">
-        <v>-0.02236410677937651</v>
+        <v>0.01739858764612998</v>
       </c>
       <c r="E21">
-        <v>0.01007972666520651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03776160767064445</v>
+      </c>
+      <c r="F21">
+        <v>0.0001728614630075501</v>
+      </c>
+      <c r="G21">
+        <v>-0.1082090826929884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004519660372049442</v>
+        <v>-0.02816399832207044</v>
       </c>
       <c r="C24">
-        <v>0.001288022240448632</v>
+        <v>-0.05026164909683201</v>
       </c>
       <c r="D24">
-        <v>-0.04162222734428608</v>
+        <v>0.00740170236155444</v>
       </c>
       <c r="E24">
-        <v>-0.001342577758029908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004976587454258608</v>
+      </c>
+      <c r="F24">
+        <v>-0.01477086734239536</v>
+      </c>
+      <c r="G24">
+        <v>-0.06362777236954251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01217178041597085</v>
+        <v>-0.04339409914388196</v>
       </c>
       <c r="C25">
-        <v>0.01774325603577634</v>
+        <v>-0.05687078564105008</v>
       </c>
       <c r="D25">
-        <v>-0.0443130358941926</v>
+        <v>0.01137767078814674</v>
       </c>
       <c r="E25">
-        <v>-0.001491767717344364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002184042854610917</v>
+      </c>
+      <c r="F25">
+        <v>-0.01007055723088391</v>
+      </c>
+      <c r="G25">
+        <v>-0.06827127390991106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02326276320399203</v>
+        <v>-0.01570875969233017</v>
       </c>
       <c r="C26">
-        <v>0.01128129496043726</v>
+        <v>-0.00823171668134318</v>
       </c>
       <c r="D26">
-        <v>0.006824136328917353</v>
+        <v>0.02338028111961263</v>
       </c>
       <c r="E26">
-        <v>0.009763866876020447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.00301985102664599</v>
+      </c>
+      <c r="F26">
+        <v>0.007138179197775998</v>
+      </c>
+      <c r="G26">
+        <v>-0.0647104066010436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04310064607729748</v>
+        <v>-0.1151077284049975</v>
       </c>
       <c r="C28">
-        <v>0.2347321009815522</v>
+        <v>0.2368554874208816</v>
       </c>
       <c r="D28">
-        <v>0.1619269495730999</v>
+        <v>-0.007845714725825285</v>
       </c>
       <c r="E28">
-        <v>0.01839927898593949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0002204912627991399</v>
+      </c>
+      <c r="F28">
+        <v>0.0203559956691785</v>
+      </c>
+      <c r="G28">
+        <v>-0.06819580896292343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008245077072562338</v>
+        <v>-0.0114701375912358</v>
       </c>
       <c r="C29">
-        <v>0.01792757323041553</v>
+        <v>-0.02061204605125402</v>
       </c>
       <c r="D29">
-        <v>-0.01053951571168376</v>
+        <v>0.00771216836029207</v>
       </c>
       <c r="E29">
-        <v>0.004790051922587863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.004599838767809459</v>
+      </c>
+      <c r="F29">
+        <v>0.01503178879135587</v>
+      </c>
+      <c r="G29">
+        <v>-0.06915162042431559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0235162719167295</v>
+        <v>-0.04711118182994616</v>
       </c>
       <c r="C30">
-        <v>0.004736622238591093</v>
+        <v>-0.06218322891872543</v>
       </c>
       <c r="D30">
-        <v>-0.05448152190964938</v>
+        <v>0.02810865330539451</v>
       </c>
       <c r="E30">
-        <v>-0.05037851562077823</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04825475808995845</v>
+      </c>
+      <c r="F30">
+        <v>-0.04702183201698754</v>
+      </c>
+      <c r="G30">
+        <v>-0.07203011943180668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009906143527608898</v>
+        <v>-0.05436181397415966</v>
       </c>
       <c r="C31">
-        <v>0.04317630583831076</v>
+        <v>-0.0337709876512572</v>
       </c>
       <c r="D31">
-        <v>-0.04374917988364325</v>
+        <v>0.003113288900122036</v>
       </c>
       <c r="E31">
-        <v>0.008547223372083487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006299799359009989</v>
+      </c>
+      <c r="F31">
+        <v>0.03854190633569962</v>
+      </c>
+      <c r="G31">
+        <v>-0.0646281726551013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006204555702688603</v>
+        <v>8.881422546876835e-06</v>
       </c>
       <c r="C32">
-        <v>0.01816704590533668</v>
+        <v>-0.02679786406940039</v>
       </c>
       <c r="D32">
-        <v>0.007167742709707879</v>
+        <v>-0.003921088444419282</v>
       </c>
       <c r="E32">
-        <v>0.05033601259796908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01599788764913522</v>
+      </c>
+      <c r="F32">
+        <v>-0.04215378253866855</v>
+      </c>
+      <c r="G32">
+        <v>-0.09127002721807538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01389213776996117</v>
+        <v>-0.02910108363483658</v>
       </c>
       <c r="C33">
-        <v>0.02594396135569809</v>
+        <v>-0.04716817765649309</v>
       </c>
       <c r="D33">
-        <v>-0.0168644080124776</v>
+        <v>0.01506948277566744</v>
       </c>
       <c r="E33">
-        <v>-0.0284082866935866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03264888856703262</v>
+      </c>
+      <c r="F33">
+        <v>-0.01779319233491044</v>
+      </c>
+      <c r="G33">
+        <v>-0.09959953424717037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003796930638314943</v>
+        <v>-0.04065098282865048</v>
       </c>
       <c r="C34">
-        <v>0.01933567049433311</v>
+        <v>-0.06142483868994854</v>
       </c>
       <c r="D34">
-        <v>-0.04953531132741306</v>
+        <v>-0.004237816761327468</v>
       </c>
       <c r="E34">
-        <v>0.00673897626277381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.000955259234060879</v>
+      </c>
+      <c r="F34">
+        <v>-0.02158454800434842</v>
+      </c>
+      <c r="G34">
+        <v>-0.07074592980042355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01320957683696428</v>
+        <v>-0.01578205770039319</v>
       </c>
       <c r="C36">
-        <v>0.02165841344974935</v>
+        <v>-0.00854543428312343</v>
       </c>
       <c r="D36">
-        <v>-0.0009560966764078206</v>
+        <v>0.01156661602193057</v>
       </c>
       <c r="E36">
-        <v>0.004004772090809432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001146300015297194</v>
+      </c>
+      <c r="F36">
+        <v>0.008401370846286419</v>
+      </c>
+      <c r="G36">
+        <v>-0.05849485250639967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003503404604628934</v>
+        <v>-0.03320730497624091</v>
       </c>
       <c r="C38">
-        <v>0.03584431151922005</v>
+        <v>-0.0287658559415331</v>
       </c>
       <c r="D38">
-        <v>-0.03030370369446516</v>
+        <v>-0.007692747656985599</v>
       </c>
       <c r="E38">
-        <v>0.005786895694453597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002664875389258063</v>
+      </c>
+      <c r="F38">
+        <v>0.01447708100104139</v>
+      </c>
+      <c r="G38">
+        <v>-0.06604287879274111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004924533423640878</v>
+        <v>-0.03590190545621741</v>
       </c>
       <c r="C39">
-        <v>-0.01748122514411383</v>
+        <v>-0.08151898827759854</v>
       </c>
       <c r="D39">
-        <v>-0.08772794204680003</v>
+        <v>0.01226216199603069</v>
       </c>
       <c r="E39">
-        <v>-0.01672026318650695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0244839681106118</v>
+      </c>
+      <c r="F39">
+        <v>-0.02797062620686428</v>
+      </c>
+      <c r="G39">
+        <v>-0.06567468470126034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01289665750321298</v>
+        <v>-0.01949290780396661</v>
       </c>
       <c r="C40">
-        <v>0.02344022606190934</v>
+        <v>-0.03187231634838209</v>
       </c>
       <c r="D40">
-        <v>-0.02341679023771543</v>
+        <v>0.01394070777994141</v>
       </c>
       <c r="E40">
-        <v>0.002631904778227876</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02351173532624679</v>
+      </c>
+      <c r="F40">
+        <v>-0.01219990549476954</v>
+      </c>
+      <c r="G40">
+        <v>-0.07242842271134592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006331948875808844</v>
+        <v>-0.01734253528084169</v>
       </c>
       <c r="C41">
-        <v>0.02166541925499956</v>
+        <v>-0.003719064680981615</v>
       </c>
       <c r="D41">
-        <v>0.01031610234906039</v>
+        <v>0.003894470520181564</v>
       </c>
       <c r="E41">
-        <v>0.004093278677884464</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0004919332546632117</v>
+      </c>
+      <c r="F41">
+        <v>0.01065594654667485</v>
+      </c>
+      <c r="G41">
+        <v>-0.04425078114331985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09291966040431658</v>
+        <v>-0.01246873586397655</v>
       </c>
       <c r="C42">
-        <v>-0.01198211241643697</v>
+        <v>-0.0371733171383723</v>
       </c>
       <c r="D42">
-        <v>-0.2364106034267542</v>
+        <v>0.09417679553687476</v>
       </c>
       <c r="E42">
-        <v>-0.4184776347500546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03021957192427329</v>
+      </c>
+      <c r="F42">
+        <v>0.03740676917708504</v>
+      </c>
+      <c r="G42">
+        <v>0.1743454316295979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.00774176280685148</v>
+        <v>-0.03292611467835927</v>
       </c>
       <c r="C43">
-        <v>0.02553874251499268</v>
+        <v>-0.01435867570757383</v>
       </c>
       <c r="D43">
-        <v>0.01632269386940564</v>
+        <v>0.005373948029507992</v>
       </c>
       <c r="E43">
-        <v>-0.001260387875365679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0121711462053742</v>
+      </c>
+      <c r="F43">
+        <v>0.003109832714898424</v>
+      </c>
+      <c r="G43">
+        <v>-0.06723169001110492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003333082398548081</v>
+        <v>-0.01817564844239671</v>
       </c>
       <c r="C44">
-        <v>0.007739011515785147</v>
+        <v>-0.04837674607557971</v>
       </c>
       <c r="D44">
-        <v>-0.0258712589550944</v>
+        <v>0.006023864474640715</v>
       </c>
       <c r="E44">
-        <v>0.005198901106838916</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01716589946684552</v>
+      </c>
+      <c r="F44">
+        <v>0.003756093093942689</v>
+      </c>
+      <c r="G44">
+        <v>-0.08231958775353269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01131138467631015</v>
+        <v>-0.008539842293416198</v>
       </c>
       <c r="C46">
-        <v>0.01617882336738017</v>
+        <v>-0.01675870014219217</v>
       </c>
       <c r="D46">
-        <v>-0.01081535243874319</v>
+        <v>0.0116530352245375</v>
       </c>
       <c r="E46">
-        <v>-0.001612888641277089</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003427313812681733</v>
+      </c>
+      <c r="F46">
+        <v>0.01713465763310295</v>
+      </c>
+      <c r="G46">
+        <v>-0.06829172060780522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004521714862921012</v>
+        <v>-0.07914883884270064</v>
       </c>
       <c r="C47">
-        <v>0.05506027526797665</v>
+        <v>-0.06390134374089429</v>
       </c>
       <c r="D47">
-        <v>-0.05881942205598717</v>
+        <v>-0.005139637109765558</v>
       </c>
       <c r="E47">
-        <v>0.004708238766934248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009068094643027342</v>
+      </c>
+      <c r="F47">
+        <v>0.05311217708183456</v>
+      </c>
+      <c r="G47">
+        <v>-0.06163428729313997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004283314164759595</v>
+        <v>-0.02187837509614376</v>
       </c>
       <c r="C48">
-        <v>0.0277650398946165</v>
+        <v>-0.01057203726246341</v>
       </c>
       <c r="D48">
-        <v>-0.009607343799727346</v>
+        <v>0.0008727563801267038</v>
       </c>
       <c r="E48">
-        <v>0.003561845724282859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002609280112481053</v>
+      </c>
+      <c r="F48">
+        <v>0.02139089238226518</v>
+      </c>
+      <c r="G48">
+        <v>-0.06624116361998064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006365812831055554</v>
+        <v>-0.07923726030007799</v>
       </c>
       <c r="C50">
-        <v>0.0553758104663166</v>
+        <v>-0.0653032410368866</v>
       </c>
       <c r="D50">
-        <v>-0.0640323398747966</v>
+        <v>-0.003289888241162791</v>
       </c>
       <c r="E50">
-        <v>0.02997113187427848</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01220838928135096</v>
+      </c>
+      <c r="F50">
+        <v>0.05748199907191036</v>
+      </c>
+      <c r="G50">
+        <v>-0.07905613418494392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007401909020801676</v>
+        <v>-0.01567387632530805</v>
       </c>
       <c r="C51">
-        <v>0.01686276408142181</v>
+        <v>-0.03144270188385229</v>
       </c>
       <c r="D51">
-        <v>0.003701259577807032</v>
+        <v>0.009695671482073927</v>
       </c>
       <c r="E51">
-        <v>0.005706300413450285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01465314103358398</v>
+      </c>
+      <c r="F51">
+        <v>-0.02377928279968392</v>
+      </c>
+      <c r="G51">
+        <v>-0.09811908505636964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007754587082323082</v>
+        <v>-0.08599682575409309</v>
       </c>
       <c r="C53">
-        <v>0.06690507058879602</v>
+        <v>-0.07950360079967911</v>
       </c>
       <c r="D53">
-        <v>-0.1198561472219772</v>
+        <v>-0.004652954195524829</v>
       </c>
       <c r="E53">
-        <v>0.004949804093612511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03250279788454334</v>
+      </c>
+      <c r="F53">
+        <v>0.05910945148841024</v>
+      </c>
+      <c r="G53">
+        <v>-0.04712796857741195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001519657119312763</v>
+        <v>-0.03300935973097806</v>
       </c>
       <c r="C54">
-        <v>0.03549475556531333</v>
+        <v>-0.01354180245768301</v>
       </c>
       <c r="D54">
-        <v>0.006891767678678567</v>
+        <v>-0.002454770806880295</v>
       </c>
       <c r="E54">
-        <v>0.008910105907763899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.004267148880825209</v>
+      </c>
+      <c r="F54">
+        <v>0.006417641245508245</v>
+      </c>
+      <c r="G54">
+        <v>-0.0732759609961396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003864407462364569</v>
+        <v>-0.07478647997411862</v>
       </c>
       <c r="C55">
-        <v>0.04625094814024202</v>
+        <v>-0.06722611845985874</v>
       </c>
       <c r="D55">
-        <v>-0.1023785049520731</v>
+        <v>-0.005647294816707422</v>
       </c>
       <c r="E55">
-        <v>-0.00560623426968649</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02621997013510923</v>
+      </c>
+      <c r="F55">
+        <v>0.05886603083518233</v>
+      </c>
+      <c r="G55">
+        <v>-0.03178194523888652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006850039070356742</v>
+        <v>-0.1449705381203989</v>
       </c>
       <c r="C56">
-        <v>0.09466267887238017</v>
+        <v>-0.1032148529782977</v>
       </c>
       <c r="D56">
-        <v>-0.1548031210540383</v>
+        <v>-0.01316527025601859</v>
       </c>
       <c r="E56">
-        <v>-0.007039261374652084</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03683893249977053</v>
+      </c>
+      <c r="F56">
+        <v>0.07849114056928859</v>
+      </c>
+      <c r="G56">
+        <v>-0.008000964834408441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0244546303677361</v>
+        <v>-0.008142654536895293</v>
       </c>
       <c r="C57">
-        <v>0.01781852047955823</v>
+        <v>-0.008707263037587542</v>
       </c>
       <c r="D57">
-        <v>-0.04182009388406659</v>
+        <v>0.02356623138754561</v>
       </c>
       <c r="E57">
-        <v>-0.003900217303937103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02553144730314364</v>
+      </c>
+      <c r="F57">
+        <v>-0.00777856178901994</v>
+      </c>
+      <c r="G57">
+        <v>-0.03168152466817421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01706799046705359</v>
+        <v>-0.07499276870728462</v>
       </c>
       <c r="C58">
-        <v>0.08975220316389522</v>
+        <v>-0.03398097077154065</v>
       </c>
       <c r="D58">
-        <v>-0.09602631037003903</v>
+        <v>0.02275308846120811</v>
       </c>
       <c r="E58">
-        <v>-0.3874134206506524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9361804933962861</v>
+      </c>
+      <c r="F58">
+        <v>0.2441535309900995</v>
+      </c>
+      <c r="G58">
+        <v>0.08957303887345552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04051631851223924</v>
+        <v>-0.1540817931742547</v>
       </c>
       <c r="C59">
-        <v>0.2528948484037218</v>
+        <v>0.2120724279640198</v>
       </c>
       <c r="D59">
-        <v>0.161680176666333</v>
+        <v>-0.01391712413173981</v>
       </c>
       <c r="E59">
-        <v>0.0125063462777422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.009832649649809646</v>
+      </c>
+      <c r="F59">
+        <v>-0.001909332356589182</v>
+      </c>
+      <c r="G59">
+        <v>-0.03767739007642694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04149093497987314</v>
+        <v>-0.2880928198031734</v>
       </c>
       <c r="C60">
-        <v>0.1637873949336865</v>
+        <v>-0.09038984372879252</v>
       </c>
       <c r="D60">
-        <v>-0.07223547527766346</v>
+        <v>0.01336165696520883</v>
       </c>
       <c r="E60">
-        <v>-0.01457542926177775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001881982193741629</v>
+      </c>
+      <c r="F60">
+        <v>-0.3526598342739826</v>
+      </c>
+      <c r="G60">
+        <v>0.1258772032122842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003477694095512966</v>
+        <v>-0.03747531800933968</v>
       </c>
       <c r="C61">
-        <v>0.008553680343364975</v>
+        <v>-0.06510361445450104</v>
       </c>
       <c r="D61">
-        <v>-0.06398353345897273</v>
+        <v>0.005500699881161974</v>
       </c>
       <c r="E61">
-        <v>-0.003867358090688979</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01198912228209765</v>
+      </c>
+      <c r="F61">
+        <v>-0.01639663406023002</v>
+      </c>
+      <c r="G61">
+        <v>-0.05766787123315338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007747809417850722</v>
+        <v>-0.0149063229300379</v>
       </c>
       <c r="C63">
-        <v>0.00866765411047732</v>
+        <v>-0.02826210649571527</v>
       </c>
       <c r="D63">
-        <v>-0.007677973372153069</v>
+        <v>0.008036229693044744</v>
       </c>
       <c r="E63">
-        <v>0.009577555123508724</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002775559707103683</v>
+      </c>
+      <c r="F63">
+        <v>0.01718007745436223</v>
+      </c>
+      <c r="G63">
+        <v>-0.06732992513737175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008660653075977057</v>
+        <v>-0.05039038869230159</v>
       </c>
       <c r="C64">
-        <v>0.02921543937458954</v>
+        <v>-0.0440512473837952</v>
       </c>
       <c r="D64">
-        <v>-0.06105410910453206</v>
+        <v>0.005837559131389405</v>
       </c>
       <c r="E64">
-        <v>-0.0188979874587273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004032201706389607</v>
+      </c>
+      <c r="F64">
+        <v>-0.003110275580365465</v>
+      </c>
+      <c r="G64">
+        <v>-0.05027712971944904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01728207247768262</v>
+        <v>-0.08151473630569572</v>
       </c>
       <c r="C65">
-        <v>0.01138319646160133</v>
+        <v>-0.0557154435357839</v>
       </c>
       <c r="D65">
-        <v>-0.1076424731138408</v>
+        <v>0.0156977932973399</v>
       </c>
       <c r="E65">
-        <v>0.007181709702562318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02380553968364739</v>
+      </c>
+      <c r="F65">
+        <v>-0.03000268471335183</v>
+      </c>
+      <c r="G65">
+        <v>-0.02091887019625256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004984702978831614</v>
+        <v>-0.05320370099921296</v>
       </c>
       <c r="C66">
-        <v>-0.0115078675854846</v>
+        <v>-0.1111433052660713</v>
       </c>
       <c r="D66">
-        <v>-0.1135451188397651</v>
+        <v>0.01220399843470634</v>
       </c>
       <c r="E66">
-        <v>-0.01614933550729207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02962275624140993</v>
+      </c>
+      <c r="F66">
+        <v>-0.03648966304998036</v>
+      </c>
+      <c r="G66">
+        <v>-0.06994875190012115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003179330380901927</v>
+        <v>-0.05502495524253064</v>
       </c>
       <c r="C67">
-        <v>0.05693569540569964</v>
+        <v>-0.03202694665777439</v>
       </c>
       <c r="D67">
-        <v>-0.03667838251795551</v>
+        <v>-0.005692907962649071</v>
       </c>
       <c r="E67">
-        <v>0.005918498087148063</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003237793167137939</v>
+      </c>
+      <c r="F67">
+        <v>0.01450202456257791</v>
+      </c>
+      <c r="G67">
+        <v>-0.06122074977057392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05772991450698031</v>
+        <v>-0.1398312416222899</v>
       </c>
       <c r="C68">
-        <v>0.2301374839602106</v>
+        <v>0.2742330110242479</v>
       </c>
       <c r="D68">
-        <v>0.1556340663861207</v>
+        <v>0.003769459884609319</v>
       </c>
       <c r="E68">
-        <v>-0.008174002884306048</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.006662153207884721</v>
+      </c>
+      <c r="F68">
+        <v>0.03179417615200926</v>
+      </c>
+      <c r="G68">
+        <v>-0.02489302917842898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0006188230963131278</v>
+        <v>-0.08179258034594758</v>
       </c>
       <c r="C69">
-        <v>0.04359293102049055</v>
+        <v>-0.06852925258346923</v>
       </c>
       <c r="D69">
-        <v>-0.06299069935261074</v>
+        <v>-0.009033487682654703</v>
       </c>
       <c r="E69">
-        <v>0.007134645718703239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02567673369308717</v>
+      </c>
+      <c r="F69">
+        <v>0.03697563434162911</v>
+      </c>
+      <c r="G69">
+        <v>-0.06464043583745582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04326026647312954</v>
+        <v>-0.1297066632420141</v>
       </c>
       <c r="C71">
-        <v>0.203996578159733</v>
+        <v>0.2360778034615675</v>
       </c>
       <c r="D71">
-        <v>0.1404999380729386</v>
+        <v>-0.004943576483533011</v>
       </c>
       <c r="E71">
-        <v>-0.001012372082005942</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02485693779053717</v>
+      </c>
+      <c r="F71">
+        <v>0.01306527560732783</v>
+      </c>
+      <c r="G71">
+        <v>-0.04489888652951356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0002434088605057871</v>
+        <v>-0.08716617175786152</v>
       </c>
       <c r="C72">
-        <v>0.04864489915765752</v>
+        <v>-0.071008815871521</v>
       </c>
       <c r="D72">
-        <v>-0.1315542544035324</v>
+        <v>-0.007814788760741776</v>
       </c>
       <c r="E72">
-        <v>-0.002585418927521561</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002135332560003687</v>
+      </c>
+      <c r="F72">
+        <v>-0.04317618651702214</v>
+      </c>
+      <c r="G72">
+        <v>-0.04958668917098306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05496153718785621</v>
+        <v>-0.3849082975007793</v>
       </c>
       <c r="C73">
-        <v>0.1889259006732747</v>
+        <v>-0.1032138885336268</v>
       </c>
       <c r="D73">
-        <v>-0.1599526422644752</v>
+        <v>0.02276266003742998</v>
       </c>
       <c r="E73">
-        <v>-0.06389739214377829</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07083189595722447</v>
+      </c>
+      <c r="F73">
+        <v>-0.5679216905506937</v>
+      </c>
+      <c r="G73">
+        <v>0.204421316940988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003474008918307185</v>
+        <v>-0.1130403227180066</v>
       </c>
       <c r="C74">
-        <v>0.0799209797776001</v>
+        <v>-0.1103066679214936</v>
       </c>
       <c r="D74">
-        <v>-0.1576548028189496</v>
+        <v>-0.01006748530699436</v>
       </c>
       <c r="E74">
-        <v>-0.01645706271447792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01556544817732398</v>
+      </c>
+      <c r="F74">
+        <v>0.07300297449097189</v>
+      </c>
+      <c r="G74">
+        <v>-0.05197039050925154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01304829555064953</v>
+        <v>-0.25079404070998</v>
       </c>
       <c r="C75">
-        <v>0.1891951477740687</v>
+        <v>-0.1480479522026824</v>
       </c>
       <c r="D75">
-        <v>-0.28906892747963</v>
+        <v>-0.03000129196817288</v>
       </c>
       <c r="E75">
-        <v>-0.02979375689574585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05832238207003117</v>
+      </c>
+      <c r="F75">
+        <v>0.179846612406308</v>
+      </c>
+      <c r="G75">
+        <v>0.06318120837249853</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0007682906135133984</v>
+        <v>-0.1274028217593642</v>
       </c>
       <c r="C76">
-        <v>0.1199382597560124</v>
+        <v>-0.1128979656766811</v>
       </c>
       <c r="D76">
-        <v>-0.2346076297958307</v>
+        <v>-0.02063609774313558</v>
       </c>
       <c r="E76">
-        <v>0.01599583027949305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04750242130939841</v>
+      </c>
+      <c r="F76">
+        <v>0.1171966702440433</v>
+      </c>
+      <c r="G76">
+        <v>-0.02292915774317707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01296284280717455</v>
+        <v>-0.06755570003688773</v>
       </c>
       <c r="C77">
-        <v>0.02098085945498805</v>
+        <v>-0.05675625850973379</v>
       </c>
       <c r="D77">
-        <v>-0.04449737566388835</v>
+        <v>0.01249207480433338</v>
       </c>
       <c r="E77">
-        <v>-0.01650816456726847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05253254050073307</v>
+      </c>
+      <c r="F77">
+        <v>-0.0124977207451559</v>
+      </c>
+      <c r="G77">
+        <v>-0.0674529540369537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004844665466876738</v>
+        <v>-0.04585415843858079</v>
       </c>
       <c r="C78">
-        <v>0.01576719365390948</v>
+        <v>-0.04760435107138048</v>
       </c>
       <c r="D78">
-        <v>-0.06030160591333541</v>
+        <v>0.005271614979820293</v>
       </c>
       <c r="E78">
-        <v>-0.01133534564284911</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02130093697360447</v>
+      </c>
+      <c r="F78">
+        <v>-0.03606856614086193</v>
+      </c>
+      <c r="G78">
+        <v>-0.06542698722964911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0163613958874599</v>
+        <v>-0.05808513391463056</v>
       </c>
       <c r="C80">
-        <v>0.09397503522408521</v>
+        <v>-0.06649634839728062</v>
       </c>
       <c r="D80">
-        <v>-0.2413755733588536</v>
+        <v>0.01050100748734136</v>
       </c>
       <c r="E80">
-        <v>0.792127456206534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02409855148225698</v>
+      </c>
+      <c r="F80">
+        <v>-0.006853391668684794</v>
+      </c>
+      <c r="G80">
+        <v>-0.6926185867497499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008458163112884191</v>
+        <v>-0.1429504590190115</v>
       </c>
       <c r="C81">
-        <v>0.1130090589401957</v>
+        <v>-0.09020299353836354</v>
       </c>
       <c r="D81">
-        <v>-0.1653892634745108</v>
+        <v>-0.0154672497757296</v>
       </c>
       <c r="E81">
-        <v>0.00268431802686376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03587176041214661</v>
+      </c>
+      <c r="F81">
+        <v>0.1274023495650733</v>
+      </c>
+      <c r="G81">
+        <v>-0.01391236365871376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1221879244942757</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05940080006108957</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.007002131855717259</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08426346779410157</v>
+      </c>
+      <c r="F82">
+        <v>0.02235965767895116</v>
+      </c>
+      <c r="G82">
+        <v>-0.03178644357759318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0074886025102518</v>
+        <v>-0.03336549332237784</v>
       </c>
       <c r="C83">
-        <v>0.02211520671406656</v>
+        <v>-0.02248904927256408</v>
       </c>
       <c r="D83">
-        <v>-0.01966739432659962</v>
+        <v>0.006042977089941003</v>
       </c>
       <c r="E83">
-        <v>-0.001204682095126486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03173328545789297</v>
+      </c>
+      <c r="F83">
+        <v>-0.03514601859555781</v>
+      </c>
+      <c r="G83">
+        <v>-0.05161872895216193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01886635864014153</v>
+        <v>-0.2178783166107543</v>
       </c>
       <c r="C85">
-        <v>0.1466355657062303</v>
+        <v>-0.1418975513242533</v>
       </c>
       <c r="D85">
-        <v>-0.2644082420530301</v>
+        <v>-0.01760867648698604</v>
       </c>
       <c r="E85">
-        <v>-0.02360541557380022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09816806317806999</v>
+      </c>
+      <c r="F85">
+        <v>0.141345586613086</v>
+      </c>
+      <c r="G85">
+        <v>0.1045962300032989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008763121665592236</v>
+        <v>-0.01704897017680187</v>
       </c>
       <c r="C86">
-        <v>0.03214872777807602</v>
+        <v>-0.02299464860604131</v>
       </c>
       <c r="D86">
-        <v>-0.008912499426952677</v>
+        <v>0.01134056605871986</v>
       </c>
       <c r="E86">
-        <v>-0.0387053935405885</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0446595017210974</v>
+      </c>
+      <c r="F86">
+        <v>-0.04196110771886107</v>
+      </c>
+      <c r="G86">
+        <v>-0.1323989733907909</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007827557905593936</v>
+        <v>-0.02372381643510754</v>
       </c>
       <c r="C87">
-        <v>0.01265198492684146</v>
+        <v>-0.02564222277246947</v>
       </c>
       <c r="D87">
-        <v>-0.04199018198769593</v>
+        <v>0.01137945375616936</v>
       </c>
       <c r="E87">
-        <v>-0.01252597828927129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0855852043914011</v>
+      </c>
+      <c r="F87">
+        <v>-0.0203382886670706</v>
+      </c>
+      <c r="G87">
+        <v>-0.0927774643367202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02806665747521384</v>
+        <v>-0.0922518493968322</v>
       </c>
       <c r="C88">
-        <v>0.03525530396924666</v>
+        <v>-0.06490046064090584</v>
       </c>
       <c r="D88">
-        <v>-0.03229557289018006</v>
+        <v>0.02278261061114372</v>
       </c>
       <c r="E88">
-        <v>0.001149632640217176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01148661942442479</v>
+      </c>
+      <c r="F88">
+        <v>0.02251419168439304</v>
+      </c>
+      <c r="G88">
+        <v>-0.06208426375962778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0796934835783206</v>
+        <v>-0.2149338421170116</v>
       </c>
       <c r="C89">
-        <v>0.3664751136011742</v>
+        <v>0.3750217539884864</v>
       </c>
       <c r="D89">
-        <v>0.2480021182791677</v>
+        <v>-0.003495559281510462</v>
       </c>
       <c r="E89">
-        <v>0.03016207887514107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02107044167042849</v>
+      </c>
+      <c r="F89">
+        <v>0.02235390693897041</v>
+      </c>
+      <c r="G89">
+        <v>-0.05049500812641865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06149034451969158</v>
+        <v>-0.1947129233676431</v>
       </c>
       <c r="C90">
-        <v>0.287055095817091</v>
+        <v>0.3324479851617681</v>
       </c>
       <c r="D90">
-        <v>0.2111862159347669</v>
+        <v>-0.008447376164212978</v>
       </c>
       <c r="E90">
-        <v>-0.005099479294316519</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01850965761742475</v>
+      </c>
+      <c r="F90">
+        <v>0.05198402317474682</v>
+      </c>
+      <c r="G90">
+        <v>-0.01591068843376345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008730273376247991</v>
+        <v>-0.1956275278046876</v>
       </c>
       <c r="C91">
-        <v>0.1619758741467219</v>
+        <v>-0.1375068832578263</v>
       </c>
       <c r="D91">
-        <v>-0.2398427237019119</v>
+        <v>-0.02345609100729651</v>
       </c>
       <c r="E91">
-        <v>-0.000486481366163831</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07141218809613706</v>
+      </c>
+      <c r="F91">
+        <v>0.1539722525410718</v>
+      </c>
+      <c r="G91">
+        <v>-0.004731064414450009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02832698997366534</v>
+        <v>-0.1948136390402388</v>
       </c>
       <c r="C92">
-        <v>0.304197971087078</v>
+        <v>0.2641199961700929</v>
       </c>
       <c r="D92">
-        <v>0.09929371388685282</v>
+        <v>-0.04323114225296698</v>
       </c>
       <c r="E92">
-        <v>-0.007726317592106236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01166514706435231</v>
+      </c>
+      <c r="F92">
+        <v>0.06860385029960504</v>
+      </c>
+      <c r="G92">
+        <v>-0.1129815563218309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05970662633277083</v>
+        <v>-0.2188470379537255</v>
       </c>
       <c r="C93">
-        <v>0.3128702834698341</v>
+        <v>0.3284463851818799</v>
       </c>
       <c r="D93">
-        <v>0.2030126011039878</v>
+        <v>-0.01433663181653386</v>
       </c>
       <c r="E93">
-        <v>-0.03060082744206145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.003815059206627761</v>
+      </c>
+      <c r="F93">
+        <v>0.03405248397105816</v>
+      </c>
+      <c r="G93">
+        <v>-0.01408373844184064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03293448520146212</v>
+        <v>-0.3194371190794298</v>
       </c>
       <c r="C94">
-        <v>0.1924856778401058</v>
+        <v>-0.1643290329162172</v>
       </c>
       <c r="D94">
-        <v>-0.2400818215521344</v>
+        <v>-0.01805978922720847</v>
       </c>
       <c r="E94">
-        <v>-0.02200816267600981</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1675904530512112</v>
+      </c>
+      <c r="F94">
+        <v>0.4762555079032822</v>
+      </c>
+      <c r="G94">
+        <v>0.2592443520717939</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004348578537386313</v>
+        <v>-0.09929436292495983</v>
       </c>
       <c r="C95">
-        <v>0.03861677945792663</v>
+        <v>-0.08124466618238677</v>
       </c>
       <c r="D95">
-        <v>-0.07867549760395483</v>
+        <v>-0.008540927581240606</v>
       </c>
       <c r="E95">
-        <v>-0.1320365112463185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0631149671756866</v>
+      </c>
+      <c r="F95">
+        <v>-0.1881163286299295</v>
+      </c>
+      <c r="G95">
+        <v>0.06499740910787158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01631687451113398</v>
+        <v>-0.1997552109442046</v>
       </c>
       <c r="C98">
-        <v>0.1700188131022062</v>
+        <v>-0.04091932315128027</v>
       </c>
       <c r="D98">
-        <v>-0.1144414175570671</v>
+        <v>-0.01201632947554021</v>
       </c>
       <c r="E98">
-        <v>-0.06141118987131375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06731515072735898</v>
+      </c>
+      <c r="F98">
+        <v>-0.2441588825598191</v>
+      </c>
+      <c r="G98">
+        <v>0.02767354592474795</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008028608614958948</v>
+        <v>-0.01128999687907948</v>
       </c>
       <c r="C101">
-        <v>0.01761550092930557</v>
+        <v>-0.02056687895001274</v>
       </c>
       <c r="D101">
-        <v>-0.01027617731647128</v>
+        <v>0.007532483429955427</v>
       </c>
       <c r="E101">
-        <v>0.0052472665296908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.00487417677003073</v>
+      </c>
+      <c r="F101">
+        <v>0.01605790128792206</v>
+      </c>
+      <c r="G101">
+        <v>-0.06879955966533138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01902381224240964</v>
+        <v>-0.1210034433898552</v>
       </c>
       <c r="C102">
-        <v>0.08536551455841121</v>
+        <v>-0.083952924866783</v>
       </c>
       <c r="D102">
-        <v>-0.1313038919058785</v>
+        <v>0.001285892419885796</v>
       </c>
       <c r="E102">
-        <v>-0.007929292516622107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03296206184450945</v>
+      </c>
+      <c r="F102">
+        <v>0.04157403742946787</v>
+      </c>
+      <c r="G102">
+        <v>0.006394107455452301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002210978019174007</v>
+        <v>-0.00357512506285966</v>
       </c>
       <c r="C103">
-        <v>0.01249260080153659</v>
+        <v>-0.003201361284289686</v>
       </c>
       <c r="D103">
-        <v>-0.02359906149517123</v>
+        <v>0.0001739847928286618</v>
       </c>
       <c r="E103">
-        <v>0.01312203424032445</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001314458475892695</v>
+      </c>
+      <c r="F103">
+        <v>0.005791006963788304</v>
+      </c>
+      <c r="G103">
+        <v>-0.01269720321882293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9756859907210496</v>
+        <v>-0.0228642726629393</v>
       </c>
       <c r="C104">
-        <v>-0.172824343886158</v>
+        <v>0.03589517901852158</v>
       </c>
       <c r="D104">
-        <v>0.004657760912934744</v>
+        <v>0.9872558731813655</v>
       </c>
       <c r="E104">
-        <v>0.04038074324481482</v>
+        <v>-0.04853744479025326</v>
+      </c>
+      <c r="F104">
+        <v>0.04184956111964792</v>
+      </c>
+      <c r="G104">
+        <v>0.0192299362310767</v>
       </c>
     </row>
   </sheetData>
